--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(Agency).xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(Agency).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33602D0-0410-485E-880A-356FA302C307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37AA127-CBC8-47A8-BA17-1E61C124E465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2EE64F61-0C91-4853-BF17-E9D56E4BB508}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2EE64F61-0C91-4853-BF17-E9D56E4BB508}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Keyword</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>button_addNewProfile</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>ListView_D2(Agency)</t>
   </si>
 </sst>
 </file>
@@ -524,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE7430E-C60D-4DAB-B814-438E308D7B04}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,14 +580,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -591,10 +595,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -602,13 +606,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -616,27 +620,36 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -661,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EECA2EB-2CCA-4C8E-BAA8-E1F360B3D46B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(Agency).xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(Agency).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37AA127-CBC8-47A8-BA17-1E61C124E465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157D17AB-6A06-4B2D-88F6-FD249143B62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2EE64F61-0C91-4853-BF17-E9D56E4BB508}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2EE64F61-0C91-4853-BF17-E9D56E4BB508}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Select PCA in dropdown</t>
   </si>
   <si>
-    <t>PCA Group Profile</t>
-  </si>
-  <si>
     <t>link_foundational_wait</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>ListView_D2(Agency)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PCA GROUP PROFILE</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE7430E-C60D-4DAB-B814-438E308D7B04}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -595,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -623,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -637,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EECA2EB-2CCA-4C8E-BAA8-E1F360B3D46B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>21</v>
